--- a/VIS/Daten/Kanülen.xlsx
+++ b/VIS/Daten/Kanülen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tumde-my.sharepoint.com/personal/kilian_brenner_tum_de/Documents/Studium/Physik/Praktika/Praktikum Teil 1/Git/VIS/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilian\OneDrive - tum.de\Studium\Physik\Praktika\Praktikum Teil 1\Git\VIS\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9CAA7AF-C055-423C-8757-7E87B2CB40CE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C9CAA7AF-C055-423C-8757-7E87B2CB40CE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{B851FA4D-9127-4D86-8C4D-83D63EF49B73}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" xr2:uid="{60326B82-0A51-40D0-8AAB-6CDAB960CC58}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -443,6 +443,9 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
+      <c r="E3">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">

--- a/VIS/Daten/Kanülen.xlsx
+++ b/VIS/Daten/Kanülen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilian\OneDrive - tum.de\Studium\Physik\Praktika\Praktikum Teil 1\Git\VIS\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C9CAA7AF-C055-423C-8757-7E87B2CB40CE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{B851FA4D-9127-4D86-8C4D-83D63EF49B73}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{C9CAA7AF-C055-423C-8757-7E87B2CB40CE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{9369314F-E657-43D1-8F1B-4038BA39A803}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" xr2:uid="{60326B82-0A51-40D0-8AAB-6CDAB960CC58}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Durch Kanülen</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Fehler x</t>
   </si>
   <si>
-    <t>Fehler y</t>
-  </si>
-  <si>
     <t>Länge</t>
   </si>
   <si>
@@ -64,12 +61,27 @@
   </si>
   <si>
     <t>Temperatur</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Stromstärke</t>
+  </si>
+  <si>
+    <t>Druck [kPa]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -415,78 +428,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75940090-C47C-4CD9-91B0-7E10ED0CCA70}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>10.426500000000001</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>22.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6">
+        <f>25*0.01058</f>
+        <v>0.26450000000000001</v>
+      </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J6">
+        <f>35*0.01058</f>
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>+-2</f>
         <v>-2</v>
       </c>
-      <c r="D7">
+      <c r="C7">
+        <f>2*0.01058</f>
+        <v>2.1160000000000002E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
         <v>29.5</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <f>+-2</f>
         <v>-2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7">
+        <f>2*0.01058</f>
+        <v>2.1160000000000002E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
         <v>10</v>
       </c>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -496,20 +540,17 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>435</v>
       </c>
@@ -519,17 +560,17 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>1880</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>30.049499999999998</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>695</v>
       </c>
@@ -539,17 +580,17 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1553</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>27.654</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1030</v>
       </c>
@@ -559,17 +600,17 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>1074</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>22.7135</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1356</v>
       </c>
@@ -579,17 +620,17 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>773</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>19.344200000000001</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1880</v>
       </c>
@@ -599,15 +640,130 @@
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>482</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>14.554500000000001</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>2</v>
       </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>997.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>((A10*0.001)*997.6*9.82941)/1000</f>
+        <v>4.2655314459599998</v>
+      </c>
+      <c r="B23" s="1">
+        <f>(B10*0.001)/(100*$B$19)*1000000</f>
+        <v>0.11917502004811546</v>
+      </c>
+      <c r="H23" s="1">
+        <f>((H10*0.001)*997.6*9.82941)/1000</f>
+        <v>18.43494050208</v>
+      </c>
+      <c r="I23" s="1">
+        <f>(I10*0.001)/(100*$B$19)*1000000</f>
+        <v>0.30121792301523659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>((A11*0.001)*997.6*9.82941)/1000</f>
+        <v>6.8150444941200004</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:B27" si="0">(B11*0.001)/(100*$B$19)*1000000</f>
+        <v>0.1296722133119487</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ref="H24:H28" si="1">((H11*0.001)*997.6*9.82941)/1000</f>
+        <v>15.228437553048</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24:I27" si="2">(I11*0.001)/(100*$B$19)*1000000</f>
+        <v>0.27720529270248601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" ref="A25:A27" si="3">((A12*0.001)*997.6*9.82941)/1000</f>
+        <v>10.09999399848</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1420028067361668</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>10.531450052784001</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22768143544506816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="3"/>
+        <v>13.296691128096001</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15489374498797112</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5798984085679999</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1939073777064956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="3"/>
+        <v>18.43494050208</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16968023255813955</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7264049585119992</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14589514835605455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
